--- a/biology/Zoologie/Eunica_tatila/Eunica_tatila.xlsx
+++ b/biology/Zoologie/Eunica_tatila/Eunica_tatila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eunica tatila est une espèce de lépidoptères des Amériques de la famille des Nymphalidae.
 </t>
@@ -511,17 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Eunica tatila a été décrit par Gottlieb August Wilhelm Herrich-Schäfferen 1855 sous le nom initial de Cybdelis tatila.
-Synonyme : Eunica caerula, Godman &amp; Salvin, [1883][1].
-Noms vernaculaires
- Eunica tatila se nomme Brown Purplewing ou Florida Purpelwing en anglais[1].
-Sous-espèce
-Eunica tatila tatila ou Eunica tatila caerula Godman &amp; Salvin, 1887
-Eunica tatila bellaria Fruhstorfer, 1908
-Eunica tatila tatilina Fruhstorfer, 1908
-Eunica tatila tatilista Kaye, 1926[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eunica tatila a été décrit par Gottlieb August Wilhelm Herrich-Schäfferen 1855 sous le nom initial de Cybdelis tatila.
+Synonyme : Eunica caerula, Godman &amp; Salvin, .
+</t>
         </is>
       </c>
     </row>
@@ -546,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un papillon d'une envergure de 40 mm à 62 mm, au dessus marron clair suffusé de violet et ailes antérieures marquées de six ou sept taches rondes[2].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eunica tatila se nomme Brown Purplewing ou Florida Purpelwing en anglais.
 </t>
         </is>
       </c>
@@ -577,16 +591,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol
-Il vole toute l'année[2].
-Plantes hôtes
-Non connues[3]. 
-</t>
+          <t>Sous-espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Eunica tatila tatila ou Eunica tatila caerula Godman &amp; Salvin, 1887
+Eunica tatila bellaria Fruhstorfer, 1908
+Eunica tatila tatilina Fruhstorfer, 1908
+Eunica tatila tatilista Kaye, 1926.</t>
         </is>
       </c>
     </row>
@@ -611,16 +630,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Eunica tatilaa  est présent aux USA dans le sud du Texas et de la Floride, au Mexique, au Guatemala, en Colombie et au Brésil dans le bassin de l'Amazone et à la Jamaïque[1].
-Biotope
-Il réside dans les forêts en bord des rivières.
-Protection
-Pas de statut de protection particulier.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon d'une envergure de 40 mm à 62 mm, au dessus marron clair suffusé de violet et ailes antérieures marquées de six ou sept taches rondes.
 </t>
         </is>
       </c>
@@ -646,10 +663,193 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole toute l'année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eunica_tatila</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_tatila</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Non connues. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eunica_tatila</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_tatila</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eunica tatilaa  est présent aux USA dans le sud du Texas et de la Floride, au Mexique, au Guatemala, en Colombie et au Brésil dans le bassin de l'Amazone et à la Jamaïque.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eunica_tatila</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_tatila</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les forêts en bord des rivières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Eunica_tatila</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_tatila</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Eunica_tatila</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_tatila</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon figure sur une émission de Cuba de 1995 (valeur faciale : 15 c.).
 </t>
